--- a/Doval Constructions/37111/struct.xlsx
+++ b/Doval Constructions/37111/struct.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Doval Constructions\37111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59855870-D1A6-411D-B782-FCE05149B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10036269-9592-4ABA-99B8-094BB558588B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1320" windowWidth="28890" windowHeight="19455" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="10530" yWindow="1965" windowWidth="26775" windowHeight="17400" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">struct!$A$1:$M$56</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
   <si>
     <t>resource</t>
   </si>
@@ -59,6 +75,96 @@
   </si>
   <si>
     <t>Tier 9</t>
+  </si>
+  <si>
+    <t>Site QA</t>
+  </si>
+  <si>
+    <t>2.01 - Traffic Management</t>
+  </si>
+  <si>
+    <t>3.09 - Removal of Existing Drainage Structures and Concrete Slabs</t>
+  </si>
+  <si>
+    <t>3.11 - Installation of Culvert Components and Structures - Precast or In-Situ</t>
+  </si>
+  <si>
+    <t>3.22 - Subsoil Drainage</t>
+  </si>
+  <si>
+    <t>3.35 - Rock Protection</t>
+  </si>
+  <si>
+    <t>4.07 - Clear and Grub</t>
+  </si>
+  <si>
+    <t>4.08 - Stripping of Topsoil</t>
+  </si>
+  <si>
+    <t>4.09 - Unsuitable Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12 - Ground Surface Treatment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13 - General Excavation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14 - Embankment </t>
+  </si>
+  <si>
+    <t>4.181 - Subgrade Level</t>
+  </si>
+  <si>
+    <t>4.182 - Subgrade Treatment Type A</t>
+  </si>
+  <si>
+    <t>4.183 - Subgrade Treatment Type C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01 - Unbound Pavement </t>
+  </si>
+  <si>
+    <t>10.01 - Plant Mixed Lightly Bound Pavements</t>
+  </si>
+  <si>
+    <t>14.07 - Demolition of Road Furniture</t>
+  </si>
+  <si>
+    <t>14.13 - Supply and Installation of Road Signs</t>
+  </si>
+  <si>
+    <t>16.01 - Landscape and Revegetation Works</t>
+  </si>
+  <si>
+    <t>28.01 - Contractor's Camp and Site Facilities</t>
+  </si>
+  <si>
+    <t>45.01 - Road Surface Delineation</t>
+  </si>
+  <si>
+    <t>51.01 - Environmental Management Systems</t>
+  </si>
+  <si>
+    <t>52.01 - Erosion and Sediment Control</t>
+  </si>
+  <si>
+    <t>70.01 - MRTS70 Concrete</t>
+  </si>
+  <si>
+    <t>3.10 - Supply and Installation of Precast Concrete Culverts</t>
+  </si>
+  <si>
+    <t>14.20 - Installation of Steel beam Guardrail and End Treatments</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>Compton Rd</t>
+  </si>
+  <si>
+    <t>Kingston Rd</t>
   </si>
 </sst>
 </file>
@@ -919,11 +1025,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -966,6 +1084,446 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
